--- a/web/excel/reagent_sarf.xlsx
+++ b/web/excel/reagent_sarf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Web\OpenServer\domains\soglomdi\web\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4237356-3D53-44D1-A241-FCE3C9858CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92EE768B-338E-4454-9416-BB748A313984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -640,8 +640,8 @@
   </sheetPr>
   <dimension ref="A1:L298"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:K1048576"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -740,10 +740,7 @@
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
-      <c r="K5" s="7">
-        <f>+G5-I5-J5</f>
-        <v>0</v>
-      </c>
+      <c r="K5" s="7"/>
       <c r="L5" s="11"/>
     </row>
     <row r="6" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -4072,7 +4069,6 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <autoFilter ref="A4:K266" xr:uid="{786E00AC-DEF6-4624-BC42-A629C9DDCB82}"/>
   <pageMargins left="0.75" right="1" top="0.75" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
